--- a/examples/方案总表.xlsx
+++ b/examples/方案总表.xlsx
@@ -133,9 +133,6 @@
     <t>6ADLSR框拆裝夾專用機改造DM252</t>
   </si>
   <si>
-    <t>adazffa1</t>
-  </si>
-  <si>
     <t>ADSwq1332AQ</t>
   </si>
   <si>
@@ -291,6 +288,10 @@
   </si>
   <si>
     <t>檢測類</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adazffa1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +422,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +910,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N15:N16"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,100 +1002,100 @@
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1125,37 +1126,37 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
         <v>35</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s">
         <v>40</v>
       </c>
-      <c r="R6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
@@ -1178,43 +1179,43 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>46</v>
       </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s">
-        <v>36</v>
-      </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -1237,105 +1238,105 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
         <v>52</v>
       </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="T8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>45</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>62</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
         <v>64</v>
       </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" t="s">
         <v>65</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="40.5" x14ac:dyDescent="0.15">
@@ -1358,164 +1359,164 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
         <v>48</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s">
         <v>52</v>
       </c>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>45</v>
       </c>
       <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>62</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
         <v>64</v>
       </c>
-      <c r="L11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
         <v>65</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>75</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>46</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
         <v>73</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s">
         <v>35</v>
-      </c>
-      <c r="M12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.15">
@@ -1541,32 +1542,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/方案总表.xlsx
+++ b/examples/方案总表.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>26x 自动化立项清单</t>
   </si>
@@ -293,6 +293,24 @@
   <si>
     <t>adazffa1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adazffa6</t>
+  </si>
+  <si>
+    <t>adazffa7</t>
+  </si>
+  <si>
+    <t>adazffa8</t>
+  </si>
+  <si>
+    <t>adazffa9</t>
+  </si>
+  <si>
+    <t>adazffa10</t>
+  </si>
+  <si>
+    <t>adazffa11</t>
   </si>
 </sst>
 </file>
@@ -909,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1386,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
         <v>51</v>
@@ -1430,7 +1448,7 @@
         <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
         <v>63</v>
@@ -1489,7 +1507,7 @@
         <v>70</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
         <v>72</v>
@@ -1519,17 +1537,241 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="H13" s="6"/>
+    <row r="13" spans="1:26" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="H14" s="6"/>
+    <row r="14" spans="1:26" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="H15" s="6"/>
+    <row r="15" spans="1:26" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="H16" s="6"/>
+    <row r="16" spans="1:26" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="6"/>
